--- a/Output/Modelling/XGBoost/Tables/include_previous_model_comparison_df.xlsx
+++ b/Output/Modelling/XGBoost/Tables/include_previous_model_comparison_df.xlsx
@@ -546,7 +546,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Majority Baseline</t>
+          <t>Most Common Class Baseline</t>
         </is>
       </c>
       <c r="B5" t="n">
